--- a/statistiche/RandomForestCounterfactuals/GO.xlsx
+++ b/statistiche/RandomForestCounterfactuals/GO.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,22 +889,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>1</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1297,25 +1297,25 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1333,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1431,10 +1431,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1467,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1662,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1772,19 +1772,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1796,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1915,37 +1915,37 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
@@ -2000,22 +2000,22 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
@@ -2274,22 +2274,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2408,22 +2408,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2448,19 +2448,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2472,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -2542,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
@@ -2615,13 +2615,13 @@
         <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2676,22 +2676,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2740,22 +2740,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2786,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2807,25 +2807,25 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
